--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Robo4</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H2">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I2">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J2">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.2570382321814</v>
+        <v>43.37692366666667</v>
       </c>
       <c r="N2">
-        <v>41.2570382321814</v>
+        <v>130.130771</v>
       </c>
       <c r="O2">
-        <v>0.9945425783980903</v>
+        <v>0.9914401803448945</v>
       </c>
       <c r="P2">
-        <v>0.9945425783980903</v>
+        <v>0.9931650303696206</v>
       </c>
       <c r="Q2">
-        <v>3.897700178817421</v>
+        <v>4.342290320575333</v>
       </c>
       <c r="R2">
-        <v>3.897700178817421</v>
+        <v>39.080612885178</v>
       </c>
       <c r="S2">
-        <v>0.01459227654779655</v>
+        <v>0.01327490533685259</v>
       </c>
       <c r="T2">
-        <v>0.01459227654779655</v>
+        <v>0.01395914916284249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H3">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I3">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J3">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.226392571388727</v>
+        <v>0.064626</v>
       </c>
       <c r="N3">
-        <v>0.226392571388727</v>
+        <v>0.193878</v>
       </c>
       <c r="O3">
-        <v>0.00545742160190963</v>
+        <v>0.001477117501170476</v>
       </c>
       <c r="P3">
-        <v>0.00545742160190963</v>
+        <v>0.001479687304380924</v>
       </c>
       <c r="Q3">
-        <v>0.02138811712607323</v>
+        <v>0.006469450355999999</v>
       </c>
       <c r="R3">
-        <v>0.02138811712607323</v>
+        <v>0.058225053204</v>
       </c>
       <c r="S3">
-        <v>8.007319845597179E-05</v>
+        <v>1.977789017248124E-05</v>
       </c>
       <c r="T3">
-        <v>8.007319845597179E-05</v>
+        <v>2.07973248801667E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.3126462330436</v>
+        <v>0.100106</v>
       </c>
       <c r="H4">
-        <v>5.3126462330436</v>
+        <v>0.300318</v>
       </c>
       <c r="I4">
-        <v>0.8250878401442793</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J4">
-        <v>0.8250878401442793</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>41.2570382321814</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N4">
-        <v>41.2570382321814</v>
+        <v>0.154531</v>
       </c>
       <c r="O4">
-        <v>0.9945425783980903</v>
+        <v>0.001177340619221236</v>
       </c>
       <c r="P4">
-        <v>0.9945425783980903</v>
+        <v>0.001179388888029011</v>
       </c>
       <c r="Q4">
-        <v>219.1840487507343</v>
+        <v>0.005156493428666665</v>
       </c>
       <c r="R4">
-        <v>219.1840487507343</v>
+        <v>0.046408440858</v>
       </c>
       <c r="S4">
-        <v>0.8205849879420029</v>
+        <v>1.576402245867865E-05</v>
       </c>
       <c r="T4">
-        <v>0.8205849879420029</v>
+        <v>1.657656573235251E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.3126462330436</v>
+        <v>0.100106</v>
       </c>
       <c r="H5">
-        <v>5.3126462330436</v>
+        <v>0.300318</v>
       </c>
       <c r="I5">
-        <v>0.8250878401442793</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J5">
-        <v>0.8250878401442793</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.226392571388727</v>
+        <v>0.030416</v>
       </c>
       <c r="N5">
-        <v>0.226392571388727</v>
+        <v>0.091248</v>
       </c>
       <c r="O5">
-        <v>0.00545742160190963</v>
+        <v>0.000695200165809445</v>
       </c>
       <c r="P5">
-        <v>0.00545742160190963</v>
+        <v>0.0006964096346679382</v>
       </c>
       <c r="Q5">
-        <v>1.202743641577375</v>
+        <v>0.003044824095999999</v>
       </c>
       <c r="R5">
-        <v>1.202743641577375</v>
+        <v>0.027403416864</v>
       </c>
       <c r="S5">
-        <v>0.004502852202276349</v>
+        <v>9.308394570083085E-06</v>
       </c>
       <c r="T5">
-        <v>0.004502852202276349</v>
+        <v>9.788187936049739E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.03176580982314</v>
+        <v>0.100106</v>
       </c>
       <c r="H6">
-        <v>1.03176580982314</v>
+        <v>0.300318</v>
       </c>
       <c r="I6">
-        <v>0.1602398101094681</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J6">
-        <v>0.1602398101094681</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.2570382321814</v>
+        <v>0.227952</v>
       </c>
       <c r="N6">
-        <v>41.2570382321814</v>
+        <v>0.455904</v>
       </c>
       <c r="O6">
-        <v>0.9945425783980903</v>
+        <v>0.005210161368904348</v>
       </c>
       <c r="P6">
-        <v>0.9945425783980903</v>
+        <v>0.003479483803301461</v>
       </c>
       <c r="Q6">
-        <v>42.56760146253089</v>
+        <v>0.022819362912</v>
       </c>
       <c r="R6">
-        <v>42.56760146253089</v>
+        <v>0.136916177472</v>
       </c>
       <c r="S6">
-        <v>0.1593653139082908</v>
+        <v>6.976154520777156E-05</v>
       </c>
       <c r="T6">
-        <v>0.1593653139082908</v>
+        <v>4.89048969051028E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.300519666666666</v>
+      </c>
+      <c r="H7">
+        <v>18.901559</v>
+      </c>
+      <c r="I7">
+        <v>0.8427158849431019</v>
+      </c>
+      <c r="J7">
+        <v>0.8846139661817043</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N7">
+        <v>130.130771</v>
+      </c>
+      <c r="O7">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P7">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q7">
+        <v>273.2971606413321</v>
+      </c>
+      <c r="R7">
+        <v>2459.674445771989</v>
+      </c>
+      <c r="S7">
+        <v>0.8355023889474963</v>
+      </c>
+      <c r="T7">
+        <v>0.8785676565882429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.300519666666666</v>
+      </c>
+      <c r="H8">
+        <v>18.901559</v>
+      </c>
+      <c r="I8">
+        <v>0.8427158849431019</v>
+      </c>
+      <c r="J8">
+        <v>0.8846139661817043</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.064626</v>
+      </c>
+      <c r="N8">
+        <v>0.193878</v>
+      </c>
+      <c r="O8">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P8">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q8">
+        <v>0.407177383978</v>
+      </c>
+      <c r="R8">
+        <v>3.664596455802</v>
+      </c>
+      <c r="S8">
+        <v>0.001244790382163821</v>
+      </c>
+      <c r="T8">
+        <v>0.001308952055037123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.300519666666666</v>
+      </c>
+      <c r="H9">
+        <v>18.901559</v>
+      </c>
+      <c r="I9">
+        <v>0.8427158849431019</v>
+      </c>
+      <c r="J9">
+        <v>0.8846139661817043</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.154531</v>
+      </c>
+      <c r="O9">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P9">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q9">
+        <v>0.3245418682032222</v>
+      </c>
+      <c r="R9">
+        <v>2.920876813829</v>
+      </c>
+      <c r="S9">
+        <v>0.0009921636418064835</v>
+      </c>
+      <c r="T9">
+        <v>0.001043303881909973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.300519666666666</v>
+      </c>
+      <c r="H10">
+        <v>18.901559</v>
+      </c>
+      <c r="I10">
+        <v>0.8427158849431019</v>
+      </c>
+      <c r="J10">
+        <v>0.8846139661817043</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.030416</v>
+      </c>
+      <c r="N10">
+        <v>0.091248</v>
+      </c>
+      <c r="O10">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P10">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q10">
+        <v>0.1916366061813333</v>
+      </c>
+      <c r="R10">
+        <v>1.724729455632</v>
+      </c>
+      <c r="S10">
+        <v>0.0005858562229426977</v>
+      </c>
+      <c r="T10">
+        <v>0.0006160536890107565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.300519666666666</v>
+      </c>
+      <c r="H11">
+        <v>18.901559</v>
+      </c>
+      <c r="I11">
+        <v>0.8427158849431019</v>
+      </c>
+      <c r="J11">
+        <v>0.8846139661817043</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.227952</v>
+      </c>
+      <c r="N11">
+        <v>0.455904</v>
+      </c>
+      <c r="O11">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P11">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q11">
+        <v>1.436216059056</v>
+      </c>
+      <c r="R11">
+        <v>8.617296354336</v>
+      </c>
+      <c r="S11">
+        <v>0.004390685748692591</v>
+      </c>
+      <c r="T11">
+        <v>0.003077999967503507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="H7">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="I7">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="J7">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.226392571388727</v>
-      </c>
-      <c r="N7">
-        <v>0.226392571388727</v>
-      </c>
-      <c r="O7">
-        <v>0.00545742160190963</v>
-      </c>
-      <c r="P7">
-        <v>0.00545742160190963</v>
-      </c>
-      <c r="Q7">
-        <v>0.2335841147568329</v>
-      </c>
-      <c r="R7">
-        <v>0.2335841147568329</v>
-      </c>
-      <c r="S7">
-        <v>0.0008744962011773085</v>
-      </c>
-      <c r="T7">
-        <v>0.0008744962011773085</v>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.04049</v>
+      </c>
+      <c r="I12">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J12">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N12">
+        <v>130.130771</v>
+      </c>
+      <c r="O12">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P12">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q12">
+        <v>0.5854438797544445</v>
+      </c>
+      <c r="R12">
+        <v>5.26899491779</v>
+      </c>
+      <c r="S12">
+        <v>0.001789772564711944</v>
+      </c>
+      <c r="T12">
+        <v>0.00188202488563287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.04049</v>
+      </c>
+      <c r="I13">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J13">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.064626</v>
+      </c>
+      <c r="N13">
+        <v>0.193878</v>
+      </c>
+      <c r="O13">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P13">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q13">
+        <v>0.0008722355799999999</v>
+      </c>
+      <c r="R13">
+        <v>0.007850120219999999</v>
+      </c>
+      <c r="S13">
+        <v>2.666529389126744E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.803973402852808E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.04049</v>
+      </c>
+      <c r="I14">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J14">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.154531</v>
+      </c>
+      <c r="O14">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P14">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q14">
+        <v>0.0006952177988888888</v>
+      </c>
+      <c r="R14">
+        <v>0.00625696019</v>
+      </c>
+      <c r="S14">
+        <v>2.125364677947703E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.234914811975817E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.04049</v>
+      </c>
+      <c r="I15">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J15">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.030416</v>
+      </c>
+      <c r="N15">
+        <v>0.091248</v>
+      </c>
+      <c r="O15">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P15">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q15">
+        <v>0.0004105146133333333</v>
+      </c>
+      <c r="R15">
+        <v>0.00369463152</v>
+      </c>
+      <c r="S15">
+        <v>1.254992694885635E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.319680237383886E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.04049</v>
+      </c>
+      <c r="I16">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J16">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.227952</v>
+      </c>
+      <c r="N16">
+        <v>0.455904</v>
+      </c>
+      <c r="O16">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P16">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q16">
+        <v>0.00307659216</v>
+      </c>
+      <c r="R16">
+        <v>0.01845955296</v>
+      </c>
+      <c r="S16">
+        <v>9.405513374032427E-06</v>
+      </c>
+      <c r="T16">
+        <v>6.593541764688139E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0623235</v>
+      </c>
+      <c r="H17">
+        <v>2.124647</v>
+      </c>
+      <c r="I17">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J17">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N17">
+        <v>130.130771</v>
+      </c>
+      <c r="O17">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P17">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q17">
+        <v>46.08032536880617</v>
+      </c>
+      <c r="R17">
+        <v>276.481952212837</v>
+      </c>
+      <c r="S17">
+        <v>0.1408731134958337</v>
+      </c>
+      <c r="T17">
+        <v>0.09875619973290248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0623235</v>
+      </c>
+      <c r="H18">
+        <v>2.124647</v>
+      </c>
+      <c r="I18">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J18">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.064626</v>
+      </c>
+      <c r="N18">
+        <v>0.193878</v>
+      </c>
+      <c r="O18">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P18">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q18">
+        <v>0.06865371851099999</v>
+      </c>
+      <c r="R18">
+        <v>0.411922311066</v>
+      </c>
+      <c r="S18">
+        <v>0.000209882699445047</v>
+      </c>
+      <c r="T18">
+        <v>0.0001471339510607807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0623235</v>
+      </c>
+      <c r="H19">
+        <v>2.124647</v>
+      </c>
+      <c r="I19">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J19">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.154531</v>
+      </c>
+      <c r="O19">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P19">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q19">
+        <v>0.05472063759283333</v>
+      </c>
+      <c r="R19">
+        <v>0.328323825557</v>
+      </c>
+      <c r="S19">
+        <v>0.0001672875902781262</v>
+      </c>
+      <c r="T19">
+        <v>0.0001172735255747094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0623235</v>
+      </c>
+      <c r="H20">
+        <v>2.124647</v>
+      </c>
+      <c r="I20">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J20">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030416</v>
+      </c>
+      <c r="N20">
+        <v>0.091248</v>
+      </c>
+      <c r="O20">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P20">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q20">
+        <v>0.032311631576</v>
+      </c>
+      <c r="R20">
+        <v>0.193869789456</v>
+      </c>
+      <c r="S20">
+        <v>9.87805556017787E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.924807748374812E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0623235</v>
+      </c>
+      <c r="H21">
+        <v>2.124647</v>
+      </c>
+      <c r="I21">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J21">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.227952</v>
+      </c>
+      <c r="N21">
+        <v>0.455904</v>
+      </c>
+      <c r="O21">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P21">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q21">
+        <v>0.242158766472</v>
+      </c>
+      <c r="R21">
+        <v>0.9686350658880001</v>
+      </c>
+      <c r="S21">
+        <v>0.0007403085616299533</v>
+      </c>
+      <c r="T21">
+        <v>0.000345985397128164</v>
       </c>
     </row>
   </sheetData>
